--- a/demo/public/data.xlsx
+++ b/demo/public/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="5175" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
   <si>
     <t>source</t>
   </si>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <t>cluster</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>score</t>
@@ -862,20 +856,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -894,14 +887,8 @@
       <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -910,25 +897,19 @@
         <v>مباني، اصول و مفاهيم بازار سرمايه اسلامي</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>789</v>
-      </c>
-      <c r="G2">
-        <v>-686</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -937,27 +918,19 @@
         <v xml:space="preserve">مفاهيم پايه </v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
       <c r="E3">
         <v>15</v>
       </c>
       <c r="F3">
-        <f>F2+10</f>
-        <v>799</v>
-      </c>
-      <c r="G3">
-        <f>G2+10</f>
-        <v>-676</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -966,27 +939,19 @@
         <v>ضوابط عمومي قراردادها در بازار سرمايه اسلامي</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
       <c r="F4">
-        <f>F3+10</f>
-        <v>809</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G33" si="1">G3+10</f>
-        <v>-666</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -995,27 +960,19 @@
         <v>قراردادهاي بازار سرمايه اسلامي</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F33" si="2">F4+10</f>
-        <v>819</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>-656</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,27 +981,19 @@
         <v>قراردادهاي غير انتفاعي</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>829</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>-646</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1053,27 +1002,19 @@
         <v>قراردادهاي انتفاعي</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>839</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>-636</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1082,27 +1023,19 @@
         <v>قراردادهاي مبادله‌اي</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>849</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-626</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1111,27 +1044,19 @@
         <v xml:space="preserve">بيع </v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>859</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-616</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1140,27 +1065,19 @@
         <v>اجاره</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>15</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>869</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-606</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,27 +1086,19 @@
         <v>مقاصد شريعت، مصلحت</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>15</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>879</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-596</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,27 +1107,19 @@
         <v>ريسك، غرر و قمار</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>889</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-586</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,27 +1128,19 @@
         <v>ارزش زماني پول</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>15</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>899</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-576</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1256,27 +1149,19 @@
         <v>بهره و ربا</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>909</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-566</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,27 +1170,19 @@
         <v>ممنوعيت ربا</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>15</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>919</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-556</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,27 +1191,19 @@
         <v>ممنوعيت غرر</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>929</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>-546</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1343,27 +1212,19 @@
         <v>ممنوعيت اكل مال به باطل</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>939</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>-536</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1372,27 +1233,19 @@
         <v>ممنوعيت ضرر</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>949</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>-526</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1401,27 +1254,19 @@
         <v>ممنوعيت قمار</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>15</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>959</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>-516</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1430,27 +1275,19 @@
         <v>قراردادهاي معين</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
-        <v>969</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-506</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1459,27 +1296,19 @@
         <v>قرض‌الحسنه</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
-        <v>979</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>-496</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1488,27 +1317,19 @@
         <v>وقف</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
-        <v>989</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-486</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,27 +1338,19 @@
         <v>قراردادهاي مشاركتي</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>15</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
-        <v>999</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-476</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1546,27 +1359,19 @@
         <v>جعاله</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>15</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>1009</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>-466</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,27 +1380,19 @@
         <v>استصناع</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>15</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
-        <v>1019</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>-456</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1604,27 +1401,19 @@
         <v>مرابحه</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>15</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
-        <v>1029</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>-446</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1633,27 +1422,19 @@
         <v>بيع‌العينه</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>15</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>1039</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>-436</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1662,27 +1443,19 @@
         <v>بيع تورق</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>15</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
-        <v>1049</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-426</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1691,27 +1464,19 @@
         <v>بيع سلف</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>15</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>1059</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>-416</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1720,27 +1485,19 @@
         <v>بيع نسيه</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>15</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
-        <v>1069</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-406</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1749,27 +1506,19 @@
         <v>بيع دين</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>15</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>1079</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>-396</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1778,27 +1527,19 @@
         <v>اجاره عادي</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32">
         <v>15</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
-        <v>1089</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>-386</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1807,23 +1548,15 @@
         <v>اجاره بشرط تمليك</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>15</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
-        <v>1099</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>-376</v>
-      </c>
-      <c r="H33">
         <v>1</v>
       </c>
     </row>

--- a/demo/public/data.xlsx
+++ b/demo/public/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="6210" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="F1:G1048576"/>
+      <selection activeCell="F2" sqref="F2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -948,7 +948,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -990,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1032,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1053,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1074,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1095,7 +1095,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1116,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1158,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1179,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1200,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1221,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1242,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1263,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1284,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1305,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1410,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1452,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1473,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1515,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1536,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/demo/public/data.xlsx
+++ b/demo/public/data.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="8280" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$33</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>source</t>
   </si>
@@ -244,6 +247,9 @@
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%125</t>
+  </si>
+  <si>
+    <t>مالی اسلامی</t>
   </si>
 </sst>
 </file>
@@ -856,10 +862,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F33"/>
+      <selection activeCell="E9" sqref="E9:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -909,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -930,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -951,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -972,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1044,19 +1051,19 @@
         <v xml:space="preserve">بيع </v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,13 +1429,13 @@
         <v>بيع‌العينه</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -1443,13 +1450,13 @@
         <v>بيع تورق</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -1464,13 +1471,13 @@
         <v>بيع سلف</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1485,13 +1492,13 @@
         <v>بيع نسيه</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1506,19 +1513,19 @@
         <v>بيع دين</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>70</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1561,6 +1568,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F33">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="بيع"/>
+        <filter val="بيع تورق"/>
+        <filter val="بيع دين"/>
+        <filter val="بيع سلف"/>
+        <filter val="بيع نسيه"/>
+        <filter val="بيع‌العينه"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/demo/public/data.xlsx
+++ b/demo/public/data.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="0" windowWidth="27765" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$33</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="208">
   <si>
     <t>source</t>
   </si>
@@ -144,119 +141,521 @@
     <t>URL</t>
   </si>
   <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%86</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%87</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%88</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%89</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%90</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%91</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%92</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%94</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%98</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%99</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%100</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%101</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%102</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%103</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%104</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%105</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%106</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%109</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%110</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%111</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%113</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%116</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%117</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%118</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%123</t>
+  </si>
+  <si>
+    <t>مالی اسلامی</t>
+  </si>
+  <si>
+    <t>مشاركت</t>
+  </si>
+  <si>
+    <t>مشاركت كاهنده</t>
+  </si>
+  <si>
+    <t>مضاربه</t>
+  </si>
+  <si>
+    <t>مزارعه</t>
+  </si>
+  <si>
+    <t>مساقات</t>
+  </si>
+  <si>
+    <t>كفالت</t>
+  </si>
+  <si>
+    <t>ضمان</t>
+  </si>
+  <si>
+    <t>رهن</t>
+  </si>
+  <si>
+    <t>وديعه</t>
+  </si>
+  <si>
+    <t>حواله</t>
+  </si>
+  <si>
+    <t>عاريه</t>
+  </si>
+  <si>
+    <t>بازارهاي مالي اسلامي</t>
+  </si>
+  <si>
+    <t>بورس اوراق بهادار</t>
+  </si>
+  <si>
+    <t>بورس كالا</t>
+  </si>
+  <si>
+    <t>بورس انرژي</t>
+  </si>
+  <si>
+    <t>فرابورس</t>
+  </si>
+  <si>
+    <t>بورس دارايي فكري</t>
+  </si>
+  <si>
+    <t>ابزارهاي مالي اسلامي</t>
+  </si>
+  <si>
+    <t>صكوك</t>
+  </si>
+  <si>
+    <t>مشتقات</t>
+  </si>
+  <si>
+    <t>اوراق قرض‌الحسنه</t>
+  </si>
+  <si>
+    <t>اوراق وقف</t>
+  </si>
+  <si>
+    <t>اوراق اجاره</t>
+  </si>
+  <si>
+    <t>اوراق مرابحه</t>
+  </si>
+  <si>
+    <t>اوراق استصناع</t>
+  </si>
+  <si>
+    <t>اوراق جعاله</t>
+  </si>
+  <si>
+    <t>اوراق منفعت</t>
+  </si>
+  <si>
+    <t>اوراق سلف</t>
+  </si>
+  <si>
+    <t>اوراق وكالت</t>
+  </si>
+  <si>
+    <t>اوراق مشاركت</t>
+  </si>
+  <si>
+    <t>اوراق مضاربه</t>
+  </si>
+  <si>
+    <t>اوراق مزارعه</t>
+  </si>
+  <si>
+    <t>اوراق مساقات</t>
+  </si>
+  <si>
+    <t>اوراق تركيبي</t>
+  </si>
+  <si>
+    <t>اوراق تأمين مالي طرح‌هاي عام‌المنفعه</t>
+  </si>
+  <si>
+    <t>اوراق قرض‌الحسنه به منظور رفع احتياج نيازمندان</t>
+  </si>
+  <si>
+    <t>اوراق اجاره تأمين مالي</t>
+  </si>
+  <si>
+    <t>اوراق اجاره تأمين نقدينگي</t>
+  </si>
+  <si>
+    <t>اوراق اجاره تشكيل سرمايه شركت‌هاي ليزينگ</t>
+  </si>
+  <si>
+    <t>اوراق اجاره رهني</t>
+  </si>
+  <si>
+    <t>اوراق مرابحه تأمين مالي</t>
+  </si>
+  <si>
+    <t>اوراق مرابحه تأمين نقدينگي</t>
+  </si>
+  <si>
+    <t>اوراق مرابحه تشكيل سرمايه شركت‌هاي تجاري</t>
+  </si>
+  <si>
+    <t>اوراق مرابحه رهني</t>
+  </si>
+  <si>
+    <t>اوراق استصناع موازي</t>
+  </si>
+  <si>
+    <t>اوراق استصناع و اجاره بشرط تمليك</t>
+  </si>
+  <si>
+    <t>اوراق استصناع و فروش اقساطي</t>
+  </si>
+  <si>
+    <t>اوراق استصناع قابل تبديل به سهام</t>
+  </si>
+  <si>
+    <t>اوراق جعاله تعميرهاي اساسي</t>
+  </si>
+  <si>
+    <t>اوراق جعاله احداث و واگذاري</t>
+  </si>
+  <si>
+    <t>اوراق جعاله احداث و تبديل به سهام</t>
+  </si>
+  <si>
+    <t>اوراق منفعت واگذاری منافع آتي دارایی‌های بادوام</t>
+  </si>
+  <si>
+    <t>اوراق منفعت واگذاري خدمات آينده</t>
+  </si>
+  <si>
+    <t>اوراق سلف نفتي</t>
+  </si>
+  <si>
+    <t>اوراق مشارکت تأمين مالي طرح‌ها و پروژه‌هاي عمومي</t>
+  </si>
+  <si>
+    <t>اوراق مشارکت و اجاره بشرط تملیک</t>
+  </si>
+  <si>
+    <t>اوراق مشاركت و فروش اقساطي</t>
+  </si>
+  <si>
+    <t>اوراق مشاركت قابل تبديل به سهام</t>
+  </si>
+  <si>
+    <t>اوراق مضاربه خاص (موردي)</t>
+  </si>
+  <si>
+    <t>اوراق مضاربه عام ( باسررسید معین يا بدون سررسيد)</t>
+  </si>
+  <si>
+    <t>اوراق مضاربه بانكي</t>
+  </si>
+  <si>
+    <t>اوراق مزارعه خاص (موردي)</t>
+  </si>
+  <si>
+    <t>اوراق مزارعه عام ( باسررسید معین يا بدون سررسيد)</t>
+  </si>
+  <si>
+    <t>اوراق مزارعه بانكي</t>
+  </si>
+  <si>
+    <t>اوراق مزارعه تأمين نقدينگي</t>
+  </si>
+  <si>
+    <t>مشتقات روي سهام</t>
+  </si>
+  <si>
+    <t>قرارداد آتي</t>
+  </si>
+  <si>
+    <t>پيمان آتي</t>
+  </si>
+  <si>
+    <t>قرارداد اختيار معامله</t>
+  </si>
+  <si>
+    <t>سوآپ</t>
+  </si>
+  <si>
+    <t>ساير مشتقات</t>
+  </si>
+  <si>
+    <t>مشتقات اعتباري</t>
+  </si>
+  <si>
+    <t>سوآپ نكول اعتباري</t>
+  </si>
+  <si>
+    <t>سوآپ بازدهي كل</t>
+  </si>
+  <si>
+    <t>اسناد مرتبط با اعتبار</t>
+  </si>
+  <si>
+    <t>تعهدات با پشتوانه بدهي</t>
+  </si>
+  <si>
+    <t>نهادهاي مالي فعال در بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>صندوق‌ها و تراست‌ها</t>
+  </si>
+  <si>
+    <t>شركت‌هاي تأمين سرمايه</t>
+  </si>
+  <si>
+    <t>شركت‌هاي سرمايه‌گذاري</t>
+  </si>
+  <si>
+    <t>كارگزاري‌ها</t>
+  </si>
+  <si>
+    <t>شركت‌هاي مشاوره سرمايه‌گذاري</t>
+  </si>
+  <si>
+    <t>شركت‌هاي سبدگرداني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مؤسسات رتبه‌بندي </t>
+  </si>
+  <si>
+    <t>شركت‌هاي سرمايه‌گذاري مخاطره‌پذير</t>
+  </si>
+  <si>
+    <t>شركت سپرده‌گذاري مركزي و تسويه وجوه</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي كالايي</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي مشترك سرمايه‌گذاري</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي پوشش ريسك</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي سهام</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي زمين و ساخت</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي سرمايه‌گذاري در املاك و مستغلات</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي پروژه</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي قابل معامله در بورس</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي سهام خصوصي</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي بازنشستگي</t>
+  </si>
+  <si>
+    <t>صندوق‌هاي وقف</t>
+  </si>
+  <si>
+    <t>قوانين و مقررات در بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>قوانين و مقررات بين‌المللي بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>ساختار نظارت در بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>قوانين و مقررات مربوط به نهادهاي مالي اسلامي</t>
+  </si>
+  <si>
+    <t>قوانين و مقررات مربوط به ابزارهاي مالي اسلامي</t>
+  </si>
+  <si>
+    <t>ساير مسائل و چالش‌ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصول نظارت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزامات كفايت سرمايه </t>
+  </si>
+  <si>
+    <t>اصول حاكميت شركتي</t>
+  </si>
+  <si>
+    <t>الزامات شفافيت و افشاي اطلاعات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصول مديريت ريسك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزامات مديريت ريسك </t>
+  </si>
+  <si>
+    <t>مديريت ريسك در بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>سنجش و مديريت ريسك در نهادهاي مالي اسلامي</t>
+  </si>
+  <si>
+    <t>مديريت ريسك در ساختار صكوك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريسك اعتباري </t>
+  </si>
+  <si>
+    <t>ريسك بازار</t>
+  </si>
+  <si>
+    <t>ريسك عملياتي</t>
+  </si>
+  <si>
+    <t>ريسك نقدينگي</t>
+  </si>
+  <si>
+    <t>ريسك سيستميك</t>
+  </si>
+  <si>
+    <t>سازوكار پوشش و انتقال ريسك</t>
+  </si>
+  <si>
+    <t>مديريت دارايي و بدهي</t>
+  </si>
+  <si>
+    <t>ساير ريسك‌ها</t>
+  </si>
+  <si>
+    <t>ريسك اعتباري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريسك سيستميك </t>
+  </si>
+  <si>
+    <t>ريسك نقدشوندگي</t>
+  </si>
+  <si>
+    <t>ريسك نوسان نرخ سود</t>
+  </si>
+  <si>
+    <t>ريسك نوسان نرخ ارز</t>
+  </si>
+  <si>
+    <t>ريسك نوسان قيمت كالا</t>
+  </si>
+  <si>
+    <t>حسابداري و حسابرسي در بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>اصول گزارشگري مالي</t>
+  </si>
+  <si>
+    <t>استانداردهاي بين‌المللي گزارشگري مالي</t>
+  </si>
+  <si>
+    <t>استانداردهاي  AAOIFI &amp; IFSB</t>
+  </si>
+  <si>
+    <t>ساير</t>
+  </si>
+  <si>
+    <t>تأمين مالي پروژ‌ه‌اي و بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>بحران مالي و بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>بازار سرمايه اسلامي؛ فرصت‌ها و چالش‌ها</t>
+  </si>
+  <si>
+    <t>بازار سرمايه اسلامي؛ نوآوري و رشد</t>
+  </si>
+  <si>
+    <t>جهاني‌سازي و بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>عدالت اقتصادي و بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>ثبات مالي و بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>طبقه‌بندي بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    صكوك</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> نهادهاي مالي فعال در بازار سرمايه اسلامي</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%85</t>
+  </si>
+  <si>
     <t>cluster</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>مالی</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%86</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%87</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%88</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%89</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%90</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%91</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%92</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%93</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%94</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%98</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%99</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%100</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%101</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%102</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%103</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%104</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%105</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%106</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%109</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%110</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%111</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%113</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%116</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%117</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%118</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%119</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%120</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%121</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%122</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%123</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%124</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%125</t>
-  </si>
-  <si>
-    <t>مالی اسلامی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +675,14 @@
       <name val="B Zar"/>
       <charset val="178"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,10 +701,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,8 +714,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,15 +996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,6 +1262,1190 @@
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -862,24 +2456,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E33"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C1" t="s">
@@ -889,181 +2482,180 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>A3</f>
+        <v>مباني، اصول و مفاهيم بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>A2</f>
-        <v>مباني، اصول و مفاهيم بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B4:B56" si="0">A4</f>
+        <v xml:space="preserve">مفاهيم پايه </v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B33" si="0">A3</f>
-        <v xml:space="preserve">مفاهيم پايه </v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="str">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ضوابط عمومي قراردادها در بازار سرمايه اسلامي</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>قراردادهاي بازار سرمايه اسلامي</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5">
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="str">
+      <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>قراردادهاي غير انتفاعي</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>قراردادهاي انتفاعي</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>قراردادهاي مبادله‌اي</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">بيع </v>
-      </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1072,19 +2664,19 @@
         <v>اجاره</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,19 +2685,19 @@
         <v>مقاصد شريعت، مصلحت</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1114,19 +2706,19 @@
         <v>ريسك، غرر و قمار</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1135,19 +2727,19 @@
         <v>ارزش زماني پول</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1156,19 +2748,19 @@
         <v>بهره و ربا</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,19 +2769,19 @@
         <v>ممنوعيت ربا</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,19 +2790,19 @@
         <v>ممنوعيت غرر</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1219,19 +2811,19 @@
         <v>ممنوعيت اكل مال به باطل</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1240,19 +2832,19 @@
         <v>ممنوعيت ضرر</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1261,19 +2853,19 @@
         <v>ممنوعيت قمار</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1282,19 +2874,19 @@
         <v>قراردادهاي معين</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,19 +2895,19 @@
         <v>قرض‌الحسنه</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1324,19 +2916,19 @@
         <v>وقف</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1345,19 +2937,19 @@
         <v>قراردادهاي مشاركتي</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1366,19 +2958,19 @@
         <v>جعاله</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,19 +2979,19 @@
         <v>استصناع</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1408,13 +3000,13 @@
         <v>مرابحه</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -1422,20 +3014,20 @@
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>بيع‌العينه</v>
+        <v>مباني، اصول و مفاهيم بازار سرمايه اسلامي</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -1443,20 +3035,20 @@
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>بيع تورق</v>
+        <v xml:space="preserve">مفاهيم پايه </v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -1464,20 +3056,20 @@
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>بيع سلف</v>
+        <v>مقاصد شريعت، مصلحت</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1485,20 +3077,20 @@
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>بيع نسيه</v>
+        <v>ريسك، غرر و قمار</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1506,80 +3098,3685 @@
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>بيع دين</v>
+        <v>ارزش زماني پول</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اجاره عادي</v>
+        <v>بهره و ربا</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>ضوابط عمومي قراردادها در بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ممنوعيت ربا</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ممنوعيت غرر</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ممنوعيت اكل مال به باطل</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ممنوعيت ضرر</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ممنوعيت قمار</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>قراردادهاي بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>قراردادهاي غير انتفاعي</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>قرض‌الحسنه</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>وقف</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>قراردادهاي انتفاعي</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>قراردادهاي مبادله‌اي</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">بيع </v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>مرابحه</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>بيع‌العينه</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>بيع تورق</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>بيع سلف</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>بيع نسيه</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>بيع دين</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>اجاره</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>اجاره عادي</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>اجاره بشرط تمليك</v>
       </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>جعاله</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>استصناع</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f t="shared" ref="B57:B117" si="1">A57</f>
+        <v>قراردادهاي مشاركتي</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>مشاركت</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>مشاركت كاهنده</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>مضاربه</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>مزارعه</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>مساقات</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>قراردادهاي معين</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>كفالت</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ضمان</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E33">
-        <v>15</v>
-      </c>
-      <c r="F33">
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>رهن</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>وديعه</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>حواله</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>عاريه</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>بازارهاي مالي اسلامي</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>بورس اوراق بهادار</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>بورس كالا</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>بورس انرژي</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>فرابورس</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>بورس دارايي فكري</v>
+      </c>
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ابزارهاي مالي اسلامي</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    صكوك</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق قرض‌الحسنه</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق تأمين مالي طرح‌هاي عام‌المنفعه</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق قرض‌الحسنه به منظور رفع احتياج نيازمندان</v>
+      </c>
+      <c r="C80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق وقف</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق اجاره</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق اجاره تأمين مالي</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق اجاره تأمين نقدينگي</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق اجاره تشكيل سرمايه شركت‌هاي ليزينگ</v>
+      </c>
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق اجاره رهني</v>
+      </c>
+      <c r="C86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مرابحه</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مرابحه تأمين مالي</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مرابحه تأمين نقدينگي</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مرابحه تشكيل سرمايه شركت‌هاي تجاري</v>
+      </c>
+      <c r="C90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مرابحه رهني</v>
+      </c>
+      <c r="C91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق استصناع</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق استصناع موازي</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق استصناع و اجاره بشرط تمليك</v>
+      </c>
+      <c r="C94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق استصناع و فروش اقساطي</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق استصناع قابل تبديل به سهام</v>
+      </c>
+      <c r="C96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق جعاله</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق جعاله تعميرهاي اساسي</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق جعاله احداث و واگذاري</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق جعاله احداث و تبديل به سهام</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق منفعت</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق منفعت واگذاری منافع آتي دارایی‌های بادوام</v>
+      </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق منفعت واگذاري خدمات آينده</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق سلف</v>
+      </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق سلف نفتي</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق وكالت</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مشاركت</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مشارکت تأمين مالي طرح‌ها و پروژه‌هاي عمومي</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مشارکت و اجاره بشرط تملیک</v>
+      </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مشاركت و فروش اقساطي</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مشاركت قابل تبديل به سهام</v>
+      </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مضاربه</v>
+      </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مضاربه خاص (موردي)</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" t="s">
+        <v>63</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مضاربه عام ( باسررسید معین يا بدون سررسيد)</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مضاربه بانكي</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مزارعه</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>اوراق مزارعه خاص (موردي)</v>
+      </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="str">
+        <f t="shared" ref="B118:B174" si="2">A118</f>
+        <v>اوراق مزارعه عام ( باسررسید معین يا بدون سررسيد)</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مزارعه بانكي</v>
+      </c>
+      <c r="C119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مزارعه تأمين نقدينگي</v>
+      </c>
+      <c r="C120" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مساقات</v>
+      </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مزارعه خاص (موردي)</v>
+      </c>
+      <c r="C122" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مزارعه عام ( باسررسید معین يا بدون سررسيد)</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مزارعه بانكي</v>
+      </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق مزارعه تأمين نقدينگي</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اوراق تركيبي</v>
+      </c>
+      <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>مشتقات</v>
+      </c>
+      <c r="C127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>مشتقات روي سهام</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>قرارداد آتي</v>
+      </c>
+      <c r="C129" t="s">
+        <v>64</v>
+      </c>
+      <c r="D129" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>پيمان آتي</v>
+      </c>
+      <c r="C130" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>قرارداد اختيار معامله</v>
+      </c>
+      <c r="C131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>سوآپ</v>
+      </c>
+      <c r="C132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ساير مشتقات</v>
+      </c>
+      <c r="C133" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>مشتقات اعتباري</v>
+      </c>
+      <c r="C134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>سوآپ نكول اعتباري</v>
+      </c>
+      <c r="C135" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>سوآپ بازدهي كل</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اسناد مرتبط با اعتبار</v>
+      </c>
+      <c r="C137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>تعهدات با پشتوانه بدهي</v>
+      </c>
+      <c r="C138" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138" t="s">
+        <v>63</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> نهادهاي مالي فعال در بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C139" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌ها و تراست‌ها</v>
+      </c>
+      <c r="C140" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي كالايي</v>
+      </c>
+      <c r="C141" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي مشترك سرمايه‌گذاري</v>
+      </c>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي پوشش ريسك</v>
+      </c>
+      <c r="C143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي سهام</v>
+      </c>
+      <c r="C144" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي زمين و ساخت</v>
+      </c>
+      <c r="C145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>63</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي سرمايه‌گذاري در املاك و مستغلات</v>
+      </c>
+      <c r="C146" t="s">
+        <v>64</v>
+      </c>
+      <c r="D146" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي پروژه</v>
+      </c>
+      <c r="C147" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" t="s">
+        <v>63</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي قابل معامله در بورس</v>
+      </c>
+      <c r="C148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي سهام خصوصي</v>
+      </c>
+      <c r="C149" t="s">
+        <v>64</v>
+      </c>
+      <c r="D149" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي بازنشستگي</v>
+      </c>
+      <c r="C150" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150" t="s">
+        <v>63</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>صندوق‌هاي وقف</v>
+      </c>
+      <c r="C151" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" t="s">
+        <v>63</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>شركت‌هاي تأمين سرمايه</v>
+      </c>
+      <c r="C152" t="s">
+        <v>64</v>
+      </c>
+      <c r="D152" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>شركت‌هاي سرمايه‌گذاري</v>
+      </c>
+      <c r="C153" t="s">
+        <v>64</v>
+      </c>
+      <c r="D153" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>كارگزاري‌ها</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" t="s">
+        <v>63</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>شركت‌هاي مشاوره سرمايه‌گذاري</v>
+      </c>
+      <c r="C155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>شركت‌هاي سبدگرداني</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">مؤسسات رتبه‌بندي </v>
+      </c>
+      <c r="C157" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>شركت‌هاي سرمايه‌گذاري مخاطره‌پذير</v>
+      </c>
+      <c r="C158" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B159" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>شركت سپرده‌گذاري مركزي و تسويه وجوه</v>
+      </c>
+      <c r="C159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>قوانين و مقررات در بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C160" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" t="s">
+        <v>63</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>قوانين و مقررات بين‌المللي بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C161" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ساختار نظارت در بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>63</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>قوانين و مقررات مربوط به نهادهاي مالي اسلامي</v>
+      </c>
+      <c r="C163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
+        <v>63</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">اصول نظارت </v>
+      </c>
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
+        <v>63</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">الزامات كفايت سرمايه </v>
+      </c>
+      <c r="C165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" t="s">
+        <v>63</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>اصول حاكميت شركتي</v>
+      </c>
+      <c r="C166" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" t="s">
+        <v>63</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>الزامات شفافيت و افشاي اطلاعات</v>
+      </c>
+      <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">اصول مديريت ريسك </v>
+      </c>
+      <c r="C168" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>قوانين و مقررات مربوط به ابزارهاي مالي اسلامي</v>
+      </c>
+      <c r="C169" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">الزامات كفايت سرمايه </v>
+      </c>
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
+        <v>63</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>الزامات شفافيت و افشاي اطلاعات</v>
+      </c>
+      <c r="C171" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">الزامات مديريت ريسك </v>
+      </c>
+      <c r="C172" t="s">
+        <v>64</v>
+      </c>
+      <c r="D172" t="s">
+        <v>63</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ساير مسائل و چالش‌ها</v>
+      </c>
+      <c r="C173" t="s">
+        <v>64</v>
+      </c>
+      <c r="D173" t="s">
+        <v>63</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>مديريت ريسك در بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C174" t="s">
+        <v>64</v>
+      </c>
+      <c r="D174" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="F174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="2" t="str">
+        <f t="shared" ref="B175:B205" si="3">A175</f>
+        <v>سنجش و مديريت ريسك در نهادهاي مالي اسلامي</v>
+      </c>
+      <c r="C175" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">ريسك اعتباري </v>
+      </c>
+      <c r="C176" t="s">
+        <v>64</v>
+      </c>
+      <c r="D176" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك بازار</v>
+      </c>
+      <c r="C177" t="s">
+        <v>64</v>
+      </c>
+      <c r="D177" t="s">
+        <v>63</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك عملياتي</v>
+      </c>
+      <c r="C178" t="s">
+        <v>64</v>
+      </c>
+      <c r="D178" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك نقدينگي</v>
+      </c>
+      <c r="C179" t="s">
+        <v>64</v>
+      </c>
+      <c r="D179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك سيستميك</v>
+      </c>
+      <c r="C180" t="s">
+        <v>64</v>
+      </c>
+      <c r="D180" t="s">
+        <v>63</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>سازوكار پوشش و انتقال ريسك</v>
+      </c>
+      <c r="C181" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>مديريت دارايي و بدهي</v>
+      </c>
+      <c r="C182" t="s">
+        <v>64</v>
+      </c>
+      <c r="D182" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ساير ريسك‌ها</v>
+      </c>
+      <c r="C183" t="s">
+        <v>64</v>
+      </c>
+      <c r="D183" t="s">
+        <v>63</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B184" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>مديريت ريسك در ساختار صكوك</v>
+      </c>
+      <c r="C184" t="s">
+        <v>64</v>
+      </c>
+      <c r="D184" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك بازار</v>
+      </c>
+      <c r="C185" t="s">
+        <v>64</v>
+      </c>
+      <c r="D185" t="s">
+        <v>63</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك نوسان نرخ سود</v>
+      </c>
+      <c r="C186" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" t="s">
+        <v>63</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك نوسان نرخ ارز</v>
+      </c>
+      <c r="C187" t="s">
+        <v>64</v>
+      </c>
+      <c r="D187" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك نوسان قيمت كالا</v>
+      </c>
+      <c r="C188" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك اعتباري</v>
+      </c>
+      <c r="C189" t="s">
+        <v>64</v>
+      </c>
+      <c r="D189" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189">
+        <v>6</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">ريسك سيستميك </v>
+      </c>
+      <c r="C190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D190" t="s">
+        <v>63</v>
+      </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك نقدشوندگي</v>
+      </c>
+      <c r="C191" t="s">
+        <v>64</v>
+      </c>
+      <c r="D191" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191">
+        <v>6</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B192" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ريسك عملياتي</v>
+      </c>
+      <c r="C192" t="s">
+        <v>64</v>
+      </c>
+      <c r="D192" t="s">
+        <v>63</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B193" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ساير ريسك‌ها</v>
+      </c>
+      <c r="C193" t="s">
+        <v>64</v>
+      </c>
+      <c r="D193" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>حسابداري و حسابرسي در بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C194" t="s">
+        <v>64</v>
+      </c>
+      <c r="D194" t="s">
+        <v>63</v>
+      </c>
+      <c r="E194">
+        <v>7</v>
+      </c>
+      <c r="F194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>اصول گزارشگري مالي</v>
+      </c>
+      <c r="C195" t="s">
+        <v>64</v>
+      </c>
+      <c r="D195" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195">
+        <v>7</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>استانداردهاي بين‌المللي گزارشگري مالي</v>
+      </c>
+      <c r="C196" t="s">
+        <v>64</v>
+      </c>
+      <c r="D196" t="s">
+        <v>63</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+      <c r="F196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>استانداردهاي  AAOIFI &amp; IFSB</v>
+      </c>
+      <c r="C197" t="s">
+        <v>64</v>
+      </c>
+      <c r="D197" t="s">
+        <v>63</v>
+      </c>
+      <c r="E197">
+        <v>7</v>
+      </c>
+      <c r="F197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ساير</v>
+      </c>
+      <c r="C198" t="s">
+        <v>64</v>
+      </c>
+      <c r="D198" t="s">
+        <v>63</v>
+      </c>
+      <c r="E198">
+        <v>8</v>
+      </c>
+      <c r="F198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>تأمين مالي پروژ‌ه‌اي و بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C199" t="s">
+        <v>64</v>
+      </c>
+      <c r="D199" t="s">
+        <v>63</v>
+      </c>
+      <c r="E199">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>بحران مالي و بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C200" t="s">
+        <v>64</v>
+      </c>
+      <c r="D200" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>بازار سرمايه اسلامي؛ فرصت‌ها و چالش‌ها</v>
+      </c>
+      <c r="C201" t="s">
+        <v>64</v>
+      </c>
+      <c r="D201" t="s">
+        <v>63</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>بازار سرمايه اسلامي؛ نوآوري و رشد</v>
+      </c>
+      <c r="C202" t="s">
+        <v>64</v>
+      </c>
+      <c r="D202" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>جهاني‌سازي و بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C203" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" t="s">
+        <v>63</v>
+      </c>
+      <c r="E203">
+        <v>8</v>
+      </c>
+      <c r="F203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>عدالت اقتصادي و بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C204" t="s">
+        <v>64</v>
+      </c>
+      <c r="D204" t="s">
+        <v>63</v>
+      </c>
+      <c r="E204">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ثبات مالي و بازار سرمايه اسلامي</v>
+      </c>
+      <c r="C205" t="s">
+        <v>64</v>
+      </c>
+      <c r="D205" t="s">
+        <v>63</v>
+      </c>
+      <c r="E205">
+        <v>8</v>
+      </c>
+      <c r="F205">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F33">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="بيع"/>
-        <filter val="بيع تورق"/>
-        <filter val="بيع دين"/>
-        <filter val="بيع سلف"/>
-        <filter val="بيع نسيه"/>
-        <filter val="بيع‌العينه"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%86"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/demo/public/data.xlsx
+++ b/demo/public/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahmani.m\Documents\GitHub\sigma.js\demo\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahmani.m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="195">
   <si>
     <t>source</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%123</t>
-  </si>
-  <si>
-    <t>مالی اسلامی</t>
   </si>
   <si>
     <t>مشاركت</t>
@@ -827,7 +824,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F170" totalsRowShown="0">
   <autoFilter ref="A1:F170"/>
   <sortState ref="A2:F170">
-    <sortCondition ref="A1:A170"/>
+    <sortCondition ref="E1:E170"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="key" dataDxfId="1"/>
@@ -1108,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A31"/>
     </sheetView>
   </sheetViews>
@@ -1128,18 +1125,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1160,322 +1157,322 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1528,370 +1525,370 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1936,7 +1933,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>2</v>
@@ -1944,58 +1941,58 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2091,7 +2088,7 @@
         <v>32</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2099,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2107,7 +2104,7 @@
         <v>32</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2115,7 +2112,7 @@
         <v>32</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2123,7 +2120,7 @@
         <v>32</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2131,7 +2128,7 @@
         <v>33</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2139,7 +2136,7 @@
         <v>33</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2147,7 +2144,7 @@
         <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2155,7 +2152,7 @@
         <v>33</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2163,7 +2160,7 @@
         <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2171,111 +2168,111 @@
         <v>33</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="21">
@@ -2304,154 +2301,154 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2488,74 +2485,74 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2569,7 @@
   <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -2596,28 +2593,27 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B33" si="0">A2</f>
-        <v>ابزارهاي مالي اسلامي</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
+        <v>191</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -2628,11 +2624,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B34" si="0">A3</f>
         <v>اجاره</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -2653,7 +2649,7 @@
         <v>اجاره بشرط تمليك</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2674,7 +2670,7 @@
         <v>اجاره عادي</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2695,7 +2691,7 @@
         <v>ارزش زماني پول</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -2709,20 +2705,20 @@
     </row>
     <row r="7" spans="1:6" ht="21">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>استانداردهاي  AAOIFI &amp; IFSB</v>
+        <v>استصناع</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2730,20 +2726,20 @@
     </row>
     <row r="8" spans="1:6" ht="21">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>استانداردهاي بين‌المللي گزارشگري مالي</v>
+        <v>بهره و ربا</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2751,17 +2747,17 @@
     </row>
     <row r="9" spans="1:6" ht="21">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>استصناع</v>
+        <v xml:space="preserve">بيع </v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2772,20 +2768,20 @@
     </row>
     <row r="10" spans="1:6" ht="21">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اسناد مرتبط با اعتبار</v>
+        <v>بيع تورق</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2793,20 +2789,20 @@
     </row>
     <row r="11" spans="1:6" ht="21">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اصول حاكميت شركتي</v>
+        <v>بيع دين</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>52</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2814,20 +2810,20 @@
     </row>
     <row r="12" spans="1:6" ht="21">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اصول گزارشگري مالي</v>
+        <v>بيع سلف</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -2835,20 +2831,20 @@
     </row>
     <row r="13" spans="1:6" ht="21">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">اصول مديريت ريسك </v>
+        <v>بيع نسيه</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -2856,20 +2852,20 @@
     </row>
     <row r="14" spans="1:6" ht="21">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">اصول نظارت </v>
+        <v>بيع‌العينه</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -2877,20 +2873,20 @@
     </row>
     <row r="15" spans="1:6" ht="21">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>الزامات شفافيت و افشاي اطلاعات</v>
+        <v>جعاله</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -2898,20 +2894,20 @@
     </row>
     <row r="16" spans="1:6" ht="21">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">الزامات كفايت سرمايه </v>
+        <v>حواله</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -2919,20 +2915,20 @@
     </row>
     <row r="17" spans="1:6" ht="21">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">الزامات مديريت ريسك </v>
+        <v>رهن</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2940,20 +2936,20 @@
     </row>
     <row r="18" spans="1:6" ht="21">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق اجاره</v>
+        <v>ريسك، غرر و قمار</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2961,20 +2957,20 @@
     </row>
     <row r="19" spans="1:6" ht="21">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق اجاره تأمين مالي</v>
+        <v>ضمان</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2982,20 +2978,20 @@
     </row>
     <row r="20" spans="1:6" ht="21">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق اجاره تأمين نقدينگي</v>
+        <v>ضوابط عمومي قراردادها در بازار سرمايه اسلامي</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -3003,20 +2999,20 @@
     </row>
     <row r="21" spans="1:6" ht="21">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق اجاره تشكيل سرمايه شركت‌هاي ليزينگ</v>
+        <v>عاريه</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3024,20 +3020,20 @@
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق اجاره رهني</v>
+        <v>قراردادهاي انتفاعي</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -3045,20 +3041,20 @@
     </row>
     <row r="23" spans="1:6" ht="21">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق استصناع</v>
+        <v>قراردادهاي بازار سرمايه اسلامي</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -3066,20 +3062,20 @@
     </row>
     <row r="24" spans="1:6" ht="21">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق استصناع قابل تبديل به سهام</v>
+        <v>قراردادهاي غير انتفاعي</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -3087,20 +3083,20 @@
     </row>
     <row r="25" spans="1:6" ht="21">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق استصناع موازي</v>
+        <v>قراردادهاي مبادله‌اي</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -3108,20 +3104,20 @@
     </row>
     <row r="26" spans="1:6" ht="21">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق استصناع و اجاره بشرط تمليك</v>
+        <v>قراردادهاي مشاركتي</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3129,20 +3125,20 @@
     </row>
     <row r="27" spans="1:6" ht="21">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق استصناع و فروش اقساطي</v>
+        <v>قراردادهاي معين</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -3150,20 +3146,20 @@
     </row>
     <row r="28" spans="1:6" ht="21">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق تأمين مالي طرح‌هاي عام‌المنفعه</v>
+        <v>قرض‌الحسنه</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -3171,20 +3167,20 @@
     </row>
     <row r="29" spans="1:6" ht="21">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق تركيبي</v>
+        <v>كفالت</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>52</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -3192,20 +3188,20 @@
     </row>
     <row r="30" spans="1:6" ht="21">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق جعاله</v>
+        <v>مباني، اصول و مفاهيم بازار سرمايه اسلامي</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>52</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -3213,20 +3209,20 @@
     </row>
     <row r="31" spans="1:6" ht="21">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق جعاله احداث و تبديل به سهام</v>
+        <v>مرابحه</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -3234,20 +3230,20 @@
     </row>
     <row r="32" spans="1:6" ht="21">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق جعاله احداث و واگذاري</v>
+        <v>مزارعه</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -3255,20 +3251,20 @@
     </row>
     <row r="33" spans="1:6" ht="21">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>اوراق جعاله تعميرهاي اساسي</v>
+        <v>مساقات</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -3276,20 +3272,20 @@
     </row>
     <row r="34" spans="1:6" ht="21">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" ref="B34:B65" si="1">A34</f>
-        <v>اوراق سلف</v>
+        <f t="shared" si="0"/>
+        <v>مشاركت</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -3297,20 +3293,20 @@
     </row>
     <row r="35" spans="1:6" ht="21">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>اوراق سلف نفتي</v>
+        <f t="shared" ref="B35:B66" si="1">A35</f>
+        <v>مشاركت كاهنده</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -3318,20 +3314,20 @@
     </row>
     <row r="36" spans="1:6" ht="21">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق قرض‌الحسنه</v>
+        <v>مضاربه</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -3339,20 +3335,20 @@
     </row>
     <row r="37" spans="1:6" ht="21">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق قرض‌الحسنه به منظور رفع احتياج نيازمندان</v>
+        <v xml:space="preserve">مفاهيم پايه </v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3360,20 +3356,20 @@
     </row>
     <row r="38" spans="1:6" ht="21">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مرابحه</v>
+        <v>مقاصد شريعت، مصلحت</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -3381,20 +3377,20 @@
     </row>
     <row r="39" spans="1:6" ht="21">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مرابحه تأمين مالي</v>
+        <v>ممنوعيت اكل مال به باطل</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -3402,20 +3398,20 @@
     </row>
     <row r="40" spans="1:6" ht="21">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مرابحه تأمين نقدينگي</v>
+        <v>ممنوعيت ربا</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -3423,20 +3419,20 @@
     </row>
     <row r="41" spans="1:6" ht="21">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مرابحه تشكيل سرمايه شركت‌هاي تجاري</v>
+        <v>ممنوعيت ضرر</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3444,20 +3440,20 @@
     </row>
     <row r="42" spans="1:6" ht="21">
       <c r="A42" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مرابحه رهني</v>
+        <v>ممنوعيت غرر</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>52</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -3465,20 +3461,20 @@
     </row>
     <row r="43" spans="1:6" ht="21">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مزارعه</v>
+        <v>ممنوعيت قمار</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -3486,20 +3482,20 @@
     </row>
     <row r="44" spans="1:6" ht="21">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مزارعه بانكي</v>
+        <v>وديعه</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3507,20 +3503,20 @@
     </row>
     <row r="45" spans="1:6" ht="21">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مزارعه تأمين نقدينگي</v>
+        <v>وقف</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -3528,20 +3524,20 @@
     </row>
     <row r="46" spans="1:6" ht="21">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مزارعه خاص (موردي)</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
+        <v>بازارهاي مالي اسلامي</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -3549,20 +3545,20 @@
     </row>
     <row r="47" spans="1:6" ht="21">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مزارعه عام ( باسررسید معین يا بدون سررسيد)</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
+        <v>بورس انرژي</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3570,20 +3566,20 @@
     </row>
     <row r="48" spans="1:6" ht="21">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مساقات</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
+        <v>بورس اوراق بهادار</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D48" t="s">
         <v>52</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -3591,20 +3587,20 @@
     </row>
     <row r="49" spans="1:6" ht="21">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مشاركت</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
+        <v>بورس دارايي فكري</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -3612,20 +3608,20 @@
     </row>
     <row r="50" spans="1:6" ht="21">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مشاركت قابل تبديل به سهام</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
+        <v>بورس كالا</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -3633,20 +3629,20 @@
     </row>
     <row r="51" spans="1:6" ht="21">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مشاركت و فروش اقساطي</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
+        <v>فرابورس</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3654,14 +3650,14 @@
     </row>
     <row r="52" spans="1:6" ht="21">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مشارکت تأمين مالي طرح‌ها و پروژه‌هاي عمومي</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
+        <v>ابزارهاي مالي اسلامي</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>52</v>
@@ -3675,14 +3671,14 @@
     </row>
     <row r="53" spans="1:6" ht="21">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مشارکت و اجاره بشرط تملیک</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
+        <v>اسناد مرتبط با اعتبار</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>52</v>
@@ -3696,14 +3692,14 @@
     </row>
     <row r="54" spans="1:6" ht="21">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مضاربه</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
+        <v>اوراق اجاره</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -3717,14 +3713,14 @@
     </row>
     <row r="55" spans="1:6" ht="21">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مضاربه بانكي</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
+        <v>اوراق اجاره تأمين مالي</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D55" t="s">
         <v>52</v>
@@ -3738,14 +3734,14 @@
     </row>
     <row r="56" spans="1:6" ht="21">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مضاربه خاص (موردي)</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
+        <v>اوراق اجاره تأمين نقدينگي</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D56" t="s">
         <v>52</v>
@@ -3759,14 +3755,14 @@
     </row>
     <row r="57" spans="1:6" ht="21">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق مضاربه عام ( باسررسید معین يا بدون سررسيد)</v>
-      </c>
-      <c r="C57" t="s">
-        <v>53</v>
+        <v>اوراق اجاره تشكيل سرمايه شركت‌هاي ليزينگ</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D57" t="s">
         <v>52</v>
@@ -3780,14 +3776,14 @@
     </row>
     <row r="58" spans="1:6" ht="21">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق منفعت</v>
-      </c>
-      <c r="C58" t="s">
-        <v>53</v>
+        <v>اوراق اجاره رهني</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D58" t="s">
         <v>52</v>
@@ -3801,14 +3797,14 @@
     </row>
     <row r="59" spans="1:6" ht="21">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق منفعت واگذاري خدمات آينده</v>
-      </c>
-      <c r="C59" t="s">
-        <v>53</v>
+        <v>اوراق استصناع</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
@@ -3822,14 +3818,14 @@
     </row>
     <row r="60" spans="1:6" ht="21">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق منفعت واگذاری منافع آتي دارایی‌های بادوام</v>
-      </c>
-      <c r="C60" t="s">
-        <v>53</v>
+        <v>اوراق استصناع قابل تبديل به سهام</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D60" t="s">
         <v>52</v>
@@ -3843,14 +3839,14 @@
     </row>
     <row r="61" spans="1:6" ht="21">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق وقف</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
+        <v>اوراق استصناع موازي</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D61" t="s">
         <v>52</v>
@@ -3864,14 +3860,14 @@
     </row>
     <row r="62" spans="1:6" ht="21">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>اوراق وكالت</v>
-      </c>
-      <c r="C62" t="s">
-        <v>53</v>
+        <v>اوراق استصناع و اجاره بشرط تمليك</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D62" t="s">
         <v>52</v>
@@ -3885,20 +3881,20 @@
     </row>
     <row r="63" spans="1:6" ht="21">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>بازار سرمايه اسلامي؛ فرصت‌ها و چالش‌ها</v>
-      </c>
-      <c r="C63" t="s">
-        <v>53</v>
+        <v>اوراق استصناع و فروش اقساطي</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D63" t="s">
         <v>52</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>10</v>
@@ -3906,20 +3902,20 @@
     </row>
     <row r="64" spans="1:6" ht="21">
       <c r="A64" s="1" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>بازار سرمايه اسلامي؛ نوآوري و رشد</v>
-      </c>
-      <c r="C64" t="s">
-        <v>53</v>
+        <v>اوراق تأمين مالي طرح‌هاي عام‌المنفعه</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D64" t="s">
         <v>52</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>10</v>
@@ -3927,20 +3923,20 @@
     </row>
     <row r="65" spans="1:6" ht="21">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>بازارهاي مالي اسلامي</v>
-      </c>
-      <c r="C65" t="s">
-        <v>53</v>
+        <v>اوراق تركيبي</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D65" t="s">
         <v>52</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65">
         <v>10</v>
@@ -3948,20 +3944,20 @@
     </row>
     <row r="66" spans="1:6" ht="21">
       <c r="A66" s="1" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B97" si="2">A66</f>
-        <v>بحران مالي و بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C66" t="s">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>اوراق جعاله</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D66" t="s">
         <v>52</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>10</v>
@@ -3969,20 +3965,20 @@
     </row>
     <row r="67" spans="1:6" ht="21">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>بهره و ربا</v>
-      </c>
-      <c r="C67" t="s">
-        <v>53</v>
+        <f t="shared" ref="B67:B98" si="2">A67</f>
+        <v>اوراق جعاله احداث و تبديل به سهام</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -3990,20 +3986,20 @@
     </row>
     <row r="68" spans="1:6" ht="21">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بورس انرژي</v>
-      </c>
-      <c r="C68" t="s">
-        <v>53</v>
+        <v>اوراق جعاله احداث و واگذاري</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>52</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -4011,20 +4007,20 @@
     </row>
     <row r="69" spans="1:6" ht="21">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بورس اوراق بهادار</v>
-      </c>
-      <c r="C69" t="s">
-        <v>53</v>
+        <v>اوراق جعاله تعميرهاي اساسي</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D69" t="s">
         <v>52</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -4032,20 +4028,20 @@
     </row>
     <row r="70" spans="1:6" ht="21">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بورس دارايي فكري</v>
-      </c>
-      <c r="C70" t="s">
-        <v>53</v>
+        <v>اوراق سلف</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D70" t="s">
         <v>52</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -4053,20 +4049,20 @@
     </row>
     <row r="71" spans="1:6" ht="21">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بورس كالا</v>
-      </c>
-      <c r="C71" t="s">
-        <v>53</v>
+        <v>اوراق سلف نفتي</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D71" t="s">
         <v>52</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71">
         <v>10</v>
@@ -4074,20 +4070,20 @@
     </row>
     <row r="72" spans="1:6" ht="21">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">بيع </v>
-      </c>
-      <c r="C72" t="s">
-        <v>53</v>
+        <v>اوراق قرض‌الحسنه</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D72" t="s">
         <v>52</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>10</v>
@@ -4095,20 +4091,20 @@
     </row>
     <row r="73" spans="1:6" ht="21">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بيع تورق</v>
-      </c>
-      <c r="C73" t="s">
-        <v>53</v>
+        <v>اوراق قرض‌الحسنه به منظور رفع احتياج نيازمندان</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D73" t="s">
         <v>52</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>10</v>
@@ -4116,20 +4112,20 @@
     </row>
     <row r="74" spans="1:6" ht="21">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بيع دين</v>
-      </c>
-      <c r="C74" t="s">
-        <v>53</v>
+        <v>اوراق مرابحه</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D74" t="s">
         <v>52</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74">
         <v>10</v>
@@ -4137,20 +4133,20 @@
     </row>
     <row r="75" spans="1:6" ht="21">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بيع سلف</v>
-      </c>
-      <c r="C75" t="s">
-        <v>53</v>
+        <v>اوراق مرابحه تأمين مالي</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D75" t="s">
         <v>52</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -4158,20 +4154,20 @@
     </row>
     <row r="76" spans="1:6" ht="21">
       <c r="A76" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بيع نسيه</v>
-      </c>
-      <c r="C76" t="s">
-        <v>53</v>
+        <v>اوراق مرابحه تأمين نقدينگي</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D76" t="s">
         <v>52</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>10</v>
@@ -4179,20 +4175,20 @@
     </row>
     <row r="77" spans="1:6" ht="21">
       <c r="A77" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>بيع‌العينه</v>
-      </c>
-      <c r="C77" t="s">
-        <v>53</v>
+        <v>اوراق مرابحه تشكيل سرمايه شركت‌هاي تجاري</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D77" t="s">
         <v>52</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77">
         <v>10</v>
@@ -4200,14 +4196,14 @@
     </row>
     <row r="78" spans="1:6" ht="21">
       <c r="A78" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>پيمان آتي</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
+        <v>اوراق مرابحه رهني</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D78" t="s">
         <v>52</v>
@@ -4221,20 +4217,20 @@
     </row>
     <row r="79" spans="1:6" ht="21">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>تأمين مالي پروژ‌ه‌اي و بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C79" t="s">
-        <v>53</v>
+        <v>اوراق مزارعه</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D79" t="s">
         <v>52</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -4242,14 +4238,14 @@
     </row>
     <row r="80" spans="1:6" ht="21">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>تعهدات با پشتوانه بدهي</v>
-      </c>
-      <c r="C80" t="s">
-        <v>53</v>
+        <v>اوراق مزارعه بانكي</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D80" t="s">
         <v>52</v>
@@ -4263,20 +4259,20 @@
     </row>
     <row r="81" spans="1:6" ht="21">
       <c r="A81" s="1" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ثبات مالي و بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C81" t="s">
-        <v>53</v>
+        <v>اوراق مزارعه تأمين نقدينگي</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D81" t="s">
         <v>52</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -4284,20 +4280,20 @@
     </row>
     <row r="82" spans="1:6" ht="21">
       <c r="A82" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>جعاله</v>
-      </c>
-      <c r="C82" t="s">
-        <v>53</v>
+        <v>اوراق مزارعه خاص (موردي)</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D82" t="s">
         <v>52</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -4305,20 +4301,20 @@
     </row>
     <row r="83" spans="1:6" ht="21">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>جهاني‌سازي و بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C83" t="s">
-        <v>53</v>
+        <v>اوراق مزارعه عام ( باسررسید معین يا بدون سررسيد)</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D83" t="s">
         <v>52</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -4326,20 +4322,20 @@
     </row>
     <row r="84" spans="1:6" ht="21">
       <c r="A84" s="1" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>حسابداري و حسابرسي در بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C84" t="s">
-        <v>53</v>
+        <v>اوراق مساقات</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D84" t="s">
         <v>52</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -4347,20 +4343,20 @@
     </row>
     <row r="85" spans="1:6" ht="21">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>حواله</v>
-      </c>
-      <c r="C85" t="s">
-        <v>53</v>
+        <v>اوراق مشاركت</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D85" t="s">
         <v>52</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -4368,20 +4364,20 @@
     </row>
     <row r="86" spans="1:6" ht="21">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>رهن</v>
-      </c>
-      <c r="C86" t="s">
-        <v>53</v>
+        <v>اوراق مشاركت قابل تبديل به سهام</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D86" t="s">
         <v>52</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -4389,20 +4385,20 @@
     </row>
     <row r="87" spans="1:6" ht="21">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ريسك اعتباري </v>
-      </c>
-      <c r="C87" t="s">
-        <v>53</v>
+        <v>اوراق مشاركت و فروش اقساطي</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D87" t="s">
         <v>52</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -4410,20 +4406,20 @@
     </row>
     <row r="88" spans="1:6" ht="21">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك بازار</v>
-      </c>
-      <c r="C88" t="s">
-        <v>53</v>
+        <v>اوراق مشارکت تأمين مالي طرح‌ها و پروژه‌هاي عمومي</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D88" t="s">
         <v>52</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -4431,20 +4427,20 @@
     </row>
     <row r="89" spans="1:6" ht="21">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك سيستميك</v>
-      </c>
-      <c r="C89" t="s">
-        <v>53</v>
+        <v>اوراق مشارکت و اجاره بشرط تملیک</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D89" t="s">
         <v>52</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -4452,20 +4448,20 @@
     </row>
     <row r="90" spans="1:6" ht="21">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B90" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك عملياتي</v>
-      </c>
-      <c r="C90" t="s">
-        <v>53</v>
+        <v>اوراق مضاربه</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D90" t="s">
         <v>52</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -4473,20 +4469,20 @@
     </row>
     <row r="91" spans="1:6" ht="21">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك نقدشوندگي</v>
-      </c>
-      <c r="C91" t="s">
-        <v>53</v>
+        <v>اوراق مضاربه بانكي</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D91" t="s">
         <v>52</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -4494,20 +4490,20 @@
     </row>
     <row r="92" spans="1:6" ht="21">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك نقدينگي</v>
-      </c>
-      <c r="C92" t="s">
-        <v>53</v>
+        <v>اوراق مضاربه خاص (موردي)</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -4515,20 +4511,20 @@
     </row>
     <row r="93" spans="1:6" ht="21">
       <c r="A93" s="1" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك نوسان قيمت كالا</v>
-      </c>
-      <c r="C93" t="s">
-        <v>53</v>
+        <v>اوراق مضاربه عام ( باسررسید معین يا بدون سررسيد)</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D93" t="s">
         <v>52</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -4536,20 +4532,20 @@
     </row>
     <row r="94" spans="1:6" ht="21">
       <c r="A94" s="1" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="B94" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك نوسان نرخ ارز</v>
-      </c>
-      <c r="C94" t="s">
-        <v>53</v>
+        <v>اوراق منفعت</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D94" t="s">
         <v>52</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -4557,20 +4553,20 @@
     </row>
     <row r="95" spans="1:6" ht="21">
       <c r="A95" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك نوسان نرخ سود</v>
-      </c>
-      <c r="C95" t="s">
-        <v>53</v>
+        <v>اوراق منفعت واگذاري خدمات آينده</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D95" t="s">
         <v>52</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -4578,20 +4574,20 @@
     </row>
     <row r="96" spans="1:6" ht="21">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ريسك، غرر و قمار</v>
-      </c>
-      <c r="C96" t="s">
-        <v>53</v>
+        <v>اوراق منفعت واگذاری منافع آتي دارایی‌های بادوام</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -4599,20 +4595,20 @@
     </row>
     <row r="97" spans="1:6" ht="21">
       <c r="A97" s="1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="B97" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ساختار نظارت در بازار سرمايه اسلامي</v>
-      </c>
-      <c r="C97" t="s">
-        <v>53</v>
+        <v>اوراق وقف</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D97" t="s">
         <v>52</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -4620,20 +4616,20 @@
     </row>
     <row r="98" spans="1:6" ht="21">
       <c r="A98" s="1" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="B98" s="2" t="str">
-        <f t="shared" ref="B98:B129" si="3">A98</f>
-        <v>سازوكار پوشش و انتقال ريسك</v>
-      </c>
-      <c r="C98" t="s">
-        <v>53</v>
+        <f t="shared" si="2"/>
+        <v>اوراق وكالت</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D98" t="s">
         <v>52</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -4641,20 +4637,20 @@
     </row>
     <row r="99" spans="1:6" ht="21">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ساير</v>
-      </c>
-      <c r="C99" t="s">
-        <v>53</v>
+        <f t="shared" ref="B99:B130" si="3">A99</f>
+        <v>پيمان آتي</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D99" t="s">
         <v>52</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -4662,20 +4658,20 @@
     </row>
     <row r="100" spans="1:6" ht="21">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ساير ريسك‌ها</v>
-      </c>
-      <c r="C100" t="s">
-        <v>53</v>
+        <v>تعهدات با پشتوانه بدهي</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D100" t="s">
         <v>52</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -4683,20 +4679,20 @@
     </row>
     <row r="101" spans="1:6" ht="21">
       <c r="A101" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ساير مسائل و چالش‌ها</v>
-      </c>
-      <c r="C101" t="s">
-        <v>53</v>
+        <v>ساير مشتقات</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D101" t="s">
         <v>52</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -4704,14 +4700,14 @@
     </row>
     <row r="102" spans="1:6" ht="21">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ساير مشتقات</v>
-      </c>
-      <c r="C102" t="s">
-        <v>53</v>
+        <v>سوآپ</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D102" t="s">
         <v>52</v>
@@ -4725,20 +4721,20 @@
     </row>
     <row r="103" spans="1:6" ht="21">
       <c r="A103" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>سنجش و مديريت ريسك در نهادهاي مالي اسلامي</v>
-      </c>
-      <c r="C103" t="s">
-        <v>53</v>
+        <v>سوآپ بازدهي كل</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D103" t="s">
         <v>52</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -4746,14 +4742,14 @@
     </row>
     <row r="104" spans="1:6" ht="21">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>سوآپ</v>
-      </c>
-      <c r="C104" t="s">
-        <v>53</v>
+        <v>سوآپ نكول اعتباري</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D104" t="s">
         <v>52</v>
@@ -4767,14 +4763,14 @@
     </row>
     <row r="105" spans="1:6" ht="21">
       <c r="A105" s="1" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B105" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>سوآپ بازدهي كل</v>
-      </c>
-      <c r="C105" t="s">
-        <v>53</v>
+        <v>صكوك</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D105" t="s">
         <v>52</v>
@@ -4788,14 +4784,14 @@
     </row>
     <row r="106" spans="1:6" ht="21">
       <c r="A106" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>سوآپ نكول اعتباري</v>
-      </c>
-      <c r="C106" t="s">
-        <v>53</v>
+        <v>قرارداد اختيار معامله</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D106" t="s">
         <v>52</v>
@@ -4809,20 +4805,20 @@
     </row>
     <row r="107" spans="1:6" ht="21">
       <c r="A107" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>شركت سپرده‌گذاري مركزي و تسويه وجوه</v>
-      </c>
-      <c r="C107" t="s">
-        <v>53</v>
+        <v>قرارداد آتي</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D107" t="s">
         <v>52</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -4830,20 +4826,20 @@
     </row>
     <row r="108" spans="1:6" ht="21">
       <c r="A108" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B108" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>شركت‌هاي تأمين سرمايه</v>
-      </c>
-      <c r="C108" t="s">
-        <v>53</v>
+        <v>مشتقات</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D108" t="s">
         <v>52</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108">
         <v>10</v>
@@ -4851,20 +4847,20 @@
     </row>
     <row r="109" spans="1:6" ht="21">
       <c r="A109" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>شركت‌هاي سبدگرداني</v>
-      </c>
-      <c r="C109" t="s">
-        <v>53</v>
+        <v>مشتقات اعتباري</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D109" t="s">
         <v>52</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -4872,20 +4868,20 @@
     </row>
     <row r="110" spans="1:6" ht="21">
       <c r="A110" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>شركت‌هاي سرمايه‌گذاري</v>
-      </c>
-      <c r="C110" t="s">
-        <v>53</v>
+        <v>مشتقات روي سهام</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D110" t="s">
         <v>52</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -4897,10 +4893,10 @@
       </c>
       <c r="B111" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>شركت‌هاي سرمايه‌گذاري مخاطره‌پذير</v>
+        <v>شركت سپرده‌گذاري مركزي و تسويه وجوه</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D111" t="s">
         <v>52</v>
@@ -4914,14 +4910,14 @@
     </row>
     <row r="112" spans="1:6" ht="21">
       <c r="A112" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>شركت‌هاي مشاوره سرمايه‌گذاري</v>
+        <v>شركت‌هاي تأمين سرمايه</v>
       </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D112" t="s">
         <v>52</v>
@@ -4935,20 +4931,20 @@
     </row>
     <row r="113" spans="1:6" ht="21">
       <c r="A113" s="1" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صكوك</v>
+        <v>شركت‌هاي سبدگرداني</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D113" t="s">
         <v>52</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -4956,14 +4952,14 @@
     </row>
     <row r="114" spans="1:6" ht="21">
       <c r="A114" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌ها و تراست‌ها</v>
+        <v>شركت‌هاي سرمايه‌گذاري</v>
       </c>
       <c r="C114" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
         <v>52</v>
@@ -4977,14 +4973,14 @@
     </row>
     <row r="115" spans="1:6" ht="21">
       <c r="A115" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي بازنشستگي</v>
+        <v>شركت‌هاي سرمايه‌گذاري مخاطره‌پذير</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D115" t="s">
         <v>52</v>
@@ -4998,14 +4994,14 @@
     </row>
     <row r="116" spans="1:6" ht="21">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي پروژه</v>
+        <v>شركت‌هاي مشاوره سرمايه‌گذاري</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D116" t="s">
         <v>52</v>
@@ -5019,14 +5015,14 @@
     </row>
     <row r="117" spans="1:6" ht="21">
       <c r="A117" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي پوشش ريسك</v>
+        <v>صندوق‌ها و تراست‌ها</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D117" t="s">
         <v>52</v>
@@ -5040,14 +5036,14 @@
     </row>
     <row r="118" spans="1:6" ht="21">
       <c r="A118" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي زمين و ساخت</v>
+        <v>صندوق‌هاي بازنشستگي</v>
       </c>
       <c r="C118" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D118" t="s">
         <v>52</v>
@@ -5065,10 +5061,10 @@
       </c>
       <c r="B119" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي سرمايه‌گذاري در املاك و مستغلات</v>
+        <v>صندوق‌هاي پروژه</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D119" t="s">
         <v>52</v>
@@ -5082,14 +5078,14 @@
     </row>
     <row r="120" spans="1:6" ht="21">
       <c r="A120" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B120" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي سهام</v>
+        <v>صندوق‌هاي پوشش ريسك</v>
       </c>
       <c r="C120" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D120" t="s">
         <v>52</v>
@@ -5103,14 +5099,14 @@
     </row>
     <row r="121" spans="1:6" ht="21">
       <c r="A121" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي سهام خصوصي</v>
+        <v>صندوق‌هاي زمين و ساخت</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D121" t="s">
         <v>52</v>
@@ -5124,14 +5120,14 @@
     </row>
     <row r="122" spans="1:6" ht="21">
       <c r="A122" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي قابل معامله در بورس</v>
+        <v>صندوق‌هاي سرمايه‌گذاري در املاك و مستغلات</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D122" t="s">
         <v>52</v>
@@ -5145,14 +5141,14 @@
     </row>
     <row r="123" spans="1:6" ht="21">
       <c r="A123" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي كالايي</v>
+        <v>صندوق‌هاي سهام</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D123" t="s">
         <v>52</v>
@@ -5166,14 +5162,14 @@
     </row>
     <row r="124" spans="1:6" ht="21">
       <c r="A124" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي مشترك سرمايه‌گذاري</v>
+        <v>صندوق‌هاي سهام خصوصي</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D124" t="s">
         <v>52</v>
@@ -5187,14 +5183,14 @@
     </row>
     <row r="125" spans="1:6" ht="21">
       <c r="A125" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>صندوق‌هاي وقف</v>
+        <v>صندوق‌هاي قابل معامله در بورس</v>
       </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D125" t="s">
         <v>52</v>
@@ -5208,20 +5204,20 @@
     </row>
     <row r="126" spans="1:6" ht="21">
       <c r="A126" s="1" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ضمان</v>
+        <v>صندوق‌هاي كالايي</v>
       </c>
       <c r="C126" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
         <v>52</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -5229,40 +5225,41 @@
     </row>
     <row r="127" spans="1:6" ht="21">
       <c r="A127" s="1" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ضوابط عمومي قراردادها در بازار سرمايه اسلامي</v>
+        <v>صندوق‌هاي مشترك سرمايه‌گذاري</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F127">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="21">
       <c r="A128" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="B128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>صندوق‌هاي وقف</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>193</v>
+        <v>129</v>
+      </c>
+      <c r="D128" t="s">
+        <v>52</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -5270,20 +5267,20 @@
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="str">
-        <f t="shared" ref="B129:B170" si="4">A129</f>
-        <v>عاريه</v>
+        <f t="shared" si="3"/>
+        <v>كارگزاري‌ها</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D129" t="s">
         <v>52</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -5291,20 +5288,20 @@
     </row>
     <row r="130" spans="1:6" ht="21">
       <c r="A130" s="1" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>عدالت اقتصادي و بازار سرمايه اسلامي</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">مؤسسات رتبه‌بندي </v>
       </c>
       <c r="C130" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D130" t="s">
         <v>52</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -5312,20 +5309,20 @@
     </row>
     <row r="131" spans="1:6" ht="21">
       <c r="A131" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>فرابورس</v>
+        <f t="shared" ref="B131:B162" si="4">A131</f>
+        <v>نهادهاي مالي فعال در بازار سرمايه اسلامي</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D131" t="s">
         <v>52</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F131">
         <v>10</v>
@@ -5333,20 +5330,20 @@
     </row>
     <row r="132" spans="1:6" ht="21">
       <c r="A132" s="1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قرارداد اختيار معامله</v>
+        <v>اصول حاكميت شركتي</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D132" t="s">
         <v>52</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F132">
         <v>10</v>
@@ -5354,20 +5351,20 @@
     </row>
     <row r="133" spans="1:6" ht="21">
       <c r="A133" s="1" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قرارداد آتي</v>
+        <v xml:space="preserve">اصول مديريت ريسك </v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D133" t="s">
         <v>52</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F133">
         <v>10</v>
@@ -5375,20 +5372,20 @@
     </row>
     <row r="134" spans="1:6" ht="21">
       <c r="A134" s="1" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قراردادهاي انتفاعي</v>
+        <v xml:space="preserve">اصول نظارت </v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -5396,20 +5393,20 @@
     </row>
     <row r="135" spans="1:6" ht="21">
       <c r="A135" s="1" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قراردادهاي بازار سرمايه اسلامي</v>
+        <v>الزامات شفافيت و افشاي اطلاعات</v>
       </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
         <v>52</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F135">
         <v>10</v>
@@ -5417,20 +5414,20 @@
     </row>
     <row r="136" spans="1:6" ht="21">
       <c r="A136" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B136" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قراردادهاي غير انتفاعي</v>
+        <v xml:space="preserve">الزامات كفايت سرمايه </v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D136" t="s">
         <v>52</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F136">
         <v>10</v>
@@ -5438,20 +5435,20 @@
     </row>
     <row r="137" spans="1:6" ht="21">
       <c r="A137" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قراردادهاي مبادله‌اي</v>
+        <v xml:space="preserve">الزامات مديريت ريسك </v>
       </c>
       <c r="C137" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
         <v>52</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -5459,20 +5456,20 @@
     </row>
     <row r="138" spans="1:6" ht="21">
       <c r="A138" s="1" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قراردادهاي مشاركتي</v>
+        <v>ساختار نظارت در بازار سرمايه اسلامي</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -5480,20 +5477,20 @@
     </row>
     <row r="139" spans="1:6" ht="21">
       <c r="A139" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قراردادهاي معين</v>
+        <v>ساير مسائل و چالش‌ها</v>
       </c>
       <c r="C139" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
         <v>52</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -5501,20 +5498,20 @@
     </row>
     <row r="140" spans="1:6" ht="21">
       <c r="A140" s="1" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قرض‌الحسنه</v>
+        <v>قوانين و مقررات بين‌المللي بازار سرمايه اسلامي</v>
       </c>
       <c r="C140" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
         <v>52</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -5522,14 +5519,14 @@
     </row>
     <row r="141" spans="1:6" ht="21">
       <c r="A141" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قوانين و مقررات بين‌المللي بازار سرمايه اسلامي</v>
+        <v>قوانين و مقررات در بازار سرمايه اسلامي</v>
       </c>
       <c r="C141" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D141" t="s">
         <v>52</v>
@@ -5543,14 +5540,14 @@
     </row>
     <row r="142" spans="1:6" ht="21">
       <c r="A142" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قوانين و مقررات در بازار سرمايه اسلامي</v>
+        <v>قوانين و مقررات مربوط به ابزارهاي مالي اسلامي</v>
       </c>
       <c r="C142" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D142" t="s">
         <v>52</v>
@@ -5562,19 +5559,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="21">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B143" s="2" t="str">
+        <v>153</v>
+      </c>
+      <c r="B143" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>قوانين و مقررات مربوط به ابزارهاي مالي اسلامي</v>
+        <v>قوانين و مقررات مربوط به نهادهاي مالي اسلامي</v>
       </c>
       <c r="C143" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -5583,22 +5580,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="21">
       <c r="A144" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B144" s="5" t="str">
+        <v>165</v>
+      </c>
+      <c r="B144" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>قوانين و مقررات مربوط به نهادهاي مالي اسلامي</v>
+        <v xml:space="preserve">ريسك اعتباري </v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D144" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -5606,20 +5603,20 @@
     </row>
     <row r="145" spans="1:6" ht="21">
       <c r="A145" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B145" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>كارگزاري‌ها</v>
+        <v>ريسك بازار</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D145" t="s">
         <v>52</v>
       </c>
       <c r="E145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -5627,20 +5624,20 @@
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="B146" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>كفالت</v>
+        <v>ريسك سيستميك</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D146" t="s">
         <v>52</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F146">
         <v>10</v>
@@ -5648,20 +5645,20 @@
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="1" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="B147" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مباني، اصول و مفاهيم بازار سرمايه اسلامي</v>
+        <v>ريسك عملياتي</v>
       </c>
       <c r="C147" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
         <v>52</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F147">
         <v>10</v>
@@ -5669,14 +5666,14 @@
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B148" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مديريت دارايي و بدهي</v>
+        <v>ريسك نقدشوندگي</v>
       </c>
       <c r="C148" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D148" t="s">
         <v>52</v>
@@ -5690,14 +5687,14 @@
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B149" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مديريت ريسك در بازار سرمايه اسلامي</v>
+        <v>ريسك نقدينگي</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D149" t="s">
         <v>52</v>
@@ -5711,14 +5708,14 @@
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B150" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مديريت ريسك در ساختار صكوك</v>
+        <v>ريسك نوسان قيمت كالا</v>
       </c>
       <c r="C150" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D150" t="s">
         <v>52</v>
@@ -5732,20 +5729,20 @@
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="1" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="B151" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مرابحه</v>
+        <v>ريسك نوسان نرخ ارز</v>
       </c>
       <c r="C151" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F151">
         <v>10</v>
@@ -5753,20 +5750,20 @@
     </row>
     <row r="152" spans="1:6" ht="21">
       <c r="A152" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="B152" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مزارعه</v>
+        <v>ريسك نوسان نرخ سود</v>
       </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D152" t="s">
         <v>52</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F152">
         <v>10</v>
@@ -5774,20 +5771,20 @@
     </row>
     <row r="153" spans="1:6" ht="21">
       <c r="A153" s="1" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="B153" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مساقات</v>
+        <v>سازوكار پوشش و انتقال ريسك</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D153" t="s">
         <v>52</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F153">
         <v>10</v>
@@ -5795,20 +5792,20 @@
     </row>
     <row r="154" spans="1:6" ht="21">
       <c r="A154" s="1" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مشاركت</v>
+        <v>ساير ريسك‌ها</v>
       </c>
       <c r="C154" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
         <v>52</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F154">
         <v>10</v>
@@ -5816,20 +5813,20 @@
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مشاركت كاهنده</v>
+        <v>سنجش و مديريت ريسك در نهادهاي مالي اسلامي</v>
       </c>
       <c r="C155" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D155" t="s">
         <v>52</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F155">
         <v>10</v>
@@ -5837,20 +5834,20 @@
     </row>
     <row r="156" spans="1:6" ht="21">
       <c r="A156" s="1" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="B156" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مشتقات</v>
+        <v>مديريت دارايي و بدهي</v>
       </c>
       <c r="C156" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D156" t="s">
         <v>52</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F156">
         <v>10</v>
@@ -5858,20 +5855,20 @@
     </row>
     <row r="157" spans="1:6" ht="21">
       <c r="A157" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مشتقات اعتباري</v>
+        <v>مديريت ريسك در بازار سرمايه اسلامي</v>
       </c>
       <c r="C157" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D157" t="s">
         <v>52</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F157">
         <v>10</v>
@@ -5879,20 +5876,20 @@
     </row>
     <row r="158" spans="1:6" ht="21">
       <c r="A158" s="1" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مشتقات روي سهام</v>
+        <v>مديريت ريسك در ساختار صكوك</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D158" t="s">
         <v>52</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F158">
         <v>10</v>
@@ -5900,20 +5897,20 @@
     </row>
     <row r="159" spans="1:6" ht="21">
       <c r="A159" s="1" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مضاربه</v>
+        <v>استانداردهاي  AAOIFI &amp; IFSB</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
         <v>52</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F159">
         <v>10</v>
@@ -5921,20 +5918,20 @@
     </row>
     <row r="160" spans="1:6" ht="21">
       <c r="A160" s="1" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="B160" s="2" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">مفاهيم پايه </v>
+        <v>استانداردهاي بين‌المللي گزارشگري مالي</v>
       </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D160" t="s">
         <v>52</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -5942,20 +5939,20 @@
     </row>
     <row r="161" spans="1:6" ht="21">
       <c r="A161" s="1" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B161" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>مقاصد شريعت، مصلحت</v>
+        <v>اصول گزارشگري مالي</v>
       </c>
       <c r="C161" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D161" t="s">
         <v>52</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F161">
         <v>10</v>
@@ -5963,20 +5960,20 @@
     </row>
     <row r="162" spans="1:6" ht="21">
       <c r="A162" s="1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="B162" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ممنوعيت اكل مال به باطل</v>
+        <v>حسابداري و حسابرسي در بازار سرمايه اسلامي</v>
       </c>
       <c r="C162" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F162">
         <v>10</v>
@@ -5984,20 +5981,20 @@
     </row>
     <row r="163" spans="1:6" ht="21">
       <c r="A163" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B163" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ممنوعيت ربا</v>
+        <f t="shared" ref="B163:B194" si="5">A163</f>
+        <v>بازار سرمايه اسلامي؛ فرصت‌ها و چالش‌ها</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D163" t="s">
         <v>52</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F163">
         <v>10</v>
@@ -6005,20 +6002,20 @@
     </row>
     <row r="164" spans="1:6" ht="21">
       <c r="A164" s="1" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B164" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ممنوعيت ضرر</v>
+        <f t="shared" si="5"/>
+        <v>بازار سرمايه اسلامي؛ نوآوري و رشد</v>
       </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F164">
         <v>10</v>
@@ -6026,20 +6023,20 @@
     </row>
     <row r="165" spans="1:6" ht="21">
       <c r="A165" s="1" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="B165" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ممنوعيت غرر</v>
+        <f t="shared" si="5"/>
+        <v>بحران مالي و بازار سرمايه اسلامي</v>
       </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D165" t="s">
         <v>52</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F165">
         <v>10</v>
@@ -6047,20 +6044,20 @@
     </row>
     <row r="166" spans="1:6" ht="21">
       <c r="A166" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="B166" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ممنوعيت قمار</v>
+        <f t="shared" si="5"/>
+        <v>تأمين مالي پروژ‌ه‌اي و بازار سرمايه اسلامي</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D166" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F166">
         <v>10</v>
@@ -6068,20 +6065,20 @@
     </row>
     <row r="167" spans="1:6" ht="21">
       <c r="A167" s="1" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B167" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">مؤسسات رتبه‌بندي </v>
+        <f t="shared" si="5"/>
+        <v>ثبات مالي و بازار سرمايه اسلامي</v>
       </c>
       <c r="C167" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D167" t="s">
         <v>52</v>
       </c>
       <c r="E167">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F167">
         <v>10</v>
@@ -6089,20 +6086,20 @@
     </row>
     <row r="168" spans="1:6" ht="21">
       <c r="A168" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="B168" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>نهادهاي مالي فعال در بازار سرمايه اسلامي</v>
+        <f t="shared" si="5"/>
+        <v>جهاني‌سازي و بازار سرمايه اسلامي</v>
       </c>
       <c r="C168" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D168" t="s">
         <v>52</v>
       </c>
       <c r="E168">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F168">
         <v>10</v>
@@ -6110,20 +6107,20 @@
     </row>
     <row r="169" spans="1:6" ht="21">
       <c r="A169" s="1" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="B169" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>وديعه</v>
+        <f t="shared" si="5"/>
+        <v>ساير</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D169" t="s">
         <v>52</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F169">
         <v>10</v>
@@ -6131,20 +6128,20 @@
     </row>
     <row r="170" spans="1:6" ht="21">
       <c r="A170" s="1" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="B170" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>وقف</v>
+        <f t="shared" si="5"/>
+        <v>عدالت اقتصادي و بازار سرمايه اسلامي</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="D170" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F170">
         <v>10</v>
@@ -6152,7 +6149,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D128" r:id="rId1" display="https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%86"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://fa.wikipedia.org/wiki/%D8%A7%D9%86%D8%AC%D9%85%D9%86_%D9%85%D8%A7%D9%84%DB%8C_%D8%A7%D8%B3%D9%84%D8%A7%D9%85%DB%8C_%D8%A7%DB%8C%D8%B1%D8%A7%D9%86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
